--- a/ExcelReporter.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderEmptyDataSet.xlsx
+++ b/ExcelReporter.Tests/TestData/DataSourceDynamicPanelDataSetRenderTest/TestRenderEmptyDataSet.xlsx
@@ -38,8 +38,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="165" formatCode="#,0.00"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -77,13 +78,20 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -409,7 +417,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:17">
-      <x:c r="G3" s="0" t="n">
+      <x:c r="G3" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
